--- a/rank.xlsx
+++ b/rank.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ricardo\Documents\Doctorado EOMA\Cafee\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://miumh-my.sharepoint.com/personal/ricardo_gonzalezm_miumh_umh_es/Documents/Documentos/Cafee/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8ED35F6-ECA5-4A97-9BBB-10F1B7F81CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{B8ED35F6-ECA5-4A97-9BBB-10F1B7F81CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D19FEF7-B112-4AF1-973C-00A602081873}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="23657" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3375" yWindow="1170" windowWidth="24660" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -22,12 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>eff_vector</t>
-  </si>
-  <si>
     <t>peer 0.75</t>
   </si>
   <si>
@@ -36,11 +30,20 @@
   <si>
     <t>peer 0.95</t>
   </si>
+  <si>
+    <t>DMU</t>
+  </si>
+  <si>
+    <t>Probability be efficient</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -70,8 +73,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -371,229 +375,457 @@
   <dimension ref="A1:E98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection sqref="A1:E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>0.999910183694253</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>18</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>0.99976316045332403</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>0.99963049332280096</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>17</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>0.99825696459610902</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C5">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>20</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>0.99615851840505598</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C6">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>36</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>0.99603455440380795</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C7">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>46</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>0.98937986164634395</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C8">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>9</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>0.98676111606968797</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C9">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>9</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>56</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>0.97054259859558001</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>62</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>0.94863881463071198</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>93</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>0.94412898495584796</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>92</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>0.93345168850828797</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C13">
+        <v>18</v>
+      </c>
+      <c r="D13">
+        <v>18</v>
+      </c>
+      <c r="E13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>9</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>0.928797537422695</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C14">
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <v>9</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>97</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>0.91757689754621496</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C15">
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <v>9</v>
+      </c>
+      <c r="E15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>25</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>0.49808944126217403</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C16">
+        <v>18</v>
+      </c>
+      <c r="D16">
+        <v>18</v>
+      </c>
+      <c r="E16">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>26</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>0.49092926111594498</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C17">
+        <v>9</v>
+      </c>
+      <c r="D17">
+        <v>9</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>91</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>7.3517433737196297E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C18">
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <v>17</v>
+      </c>
+      <c r="E18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>22</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>5.5985127263286097E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C19">
+        <v>18</v>
+      </c>
+      <c r="D19">
+        <v>18</v>
+      </c>
+      <c r="E19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>43</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <v>5.4915327903531798E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C20">
+        <v>9</v>
+      </c>
+      <c r="D20">
+        <v>9</v>
+      </c>
+      <c r="E20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>85</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <v>4.8989661314193501E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>95</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="1">
         <v>3.3761038993106202E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C22">
+        <v>9</v>
+      </c>
+      <c r="D22">
+        <v>9</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>83</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
         <v>3.3472465449578499E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C23">
+        <v>18</v>
+      </c>
+      <c r="D23">
+        <v>18</v>
+      </c>
+      <c r="E23">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>44</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="1">
         <v>1.8257812044222301E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C24">
+        <v>9</v>
+      </c>
+      <c r="D24">
+        <v>9</v>
+      </c>
+      <c r="E24">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>75</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="1">
         <v>1.66980143128472E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C25">
+        <v>18</v>
+      </c>
+      <c r="D25">
+        <v>18</v>
+      </c>
+      <c r="E25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>94</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="1">
         <v>9.8621066359240207E-3</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C26">
+        <v>17</v>
+      </c>
+      <c r="D26">
+        <v>17</v>
+      </c>
+      <c r="E26">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>90</v>
       </c>
@@ -601,7 +833,7 @@
         <v>8.4859423123224698E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>88</v>
       </c>
@@ -609,7 +841,7 @@
         <v>7.0336111245423698E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>58</v>
       </c>
@@ -617,7 +849,7 @@
         <v>4.9961229453583398E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>42</v>
       </c>
@@ -625,7 +857,7 @@
         <v>3.7820183087531301E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>76</v>
       </c>
@@ -633,7 +865,7 @@
         <v>2.9154506771814602E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>89</v>
       </c>
@@ -641,7 +873,7 @@
         <v>2.6960377035165602E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>70</v>
       </c>
@@ -649,7 +881,7 @@
         <v>2.5812396497441E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>82</v>
       </c>
@@ -657,7 +889,7 @@
         <v>2.3448561327504801E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>15</v>
       </c>
@@ -665,7 +897,7 @@
         <v>2.2529537858145799E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>81</v>
       </c>
@@ -673,7 +905,7 @@
         <v>2.14357138977206E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>67</v>
       </c>
@@ -681,7 +913,7 @@
         <v>2.0682318550082602E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>86</v>
       </c>
@@ -689,7 +921,7 @@
         <v>1.9139259591082201E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>64</v>
       </c>
@@ -697,7 +929,7 @@
         <v>1.7832529710788401E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>69</v>
       </c>
@@ -705,7 +937,7 @@
         <v>1.68941823373558E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>4</v>
       </c>
@@ -713,7 +945,7 @@
         <v>1.4240051385346899E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>12</v>
       </c>
@@ -721,7 +953,7 @@
         <v>1.2703937013363001E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>96</v>
       </c>
@@ -729,7 +961,7 @@
         <v>1.2485322969018099E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>84</v>
       </c>
@@ -737,7 +969,7 @@
         <v>1.16410279161872E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>59</v>
       </c>
@@ -745,7 +977,7 @@
         <v>1.0394318473927501E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>80</v>
       </c>
@@ -753,7 +985,7 @@
         <v>9.0277616295031404E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>49</v>
       </c>
@@ -761,7 +993,7 @@
         <v>8.7486508072587299E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>57</v>
       </c>
@@ -769,7 +1001,7 @@
         <v>8.6163862035148998E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>13</v>
       </c>
@@ -777,7 +1009,7 @@
         <v>8.1485206638298702E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>19</v>
       </c>
@@ -785,7 +1017,7 @@
         <v>8.0488825488289595E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>10</v>
       </c>
@@ -793,7 +1025,7 @@
         <v>7.7121221754350401E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>78</v>
       </c>
@@ -801,7 +1033,7 @@
         <v>6.3701856865461303E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>79</v>
       </c>
@@ -809,7 +1041,7 @@
         <v>6.3698181781235398E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>51</v>
       </c>
@@ -817,7 +1049,7 @@
         <v>6.2895787522676495E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>14</v>
       </c>
@@ -825,7 +1057,7 @@
         <v>6.2758260685358302E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>32</v>
       </c>
@@ -833,7 +1065,7 @@
         <v>6.2758260685358302E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>33</v>
       </c>
@@ -841,7 +1073,7 @@
         <v>6.2758260685358302E-4</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>34</v>
       </c>
@@ -849,7 +1081,7 @@
         <v>6.2758260685358302E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>6</v>
       </c>
@@ -857,7 +1089,7 @@
         <v>6.2757631991505703E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>38</v>
       </c>
@@ -865,7 +1097,7 @@
         <v>6.2755017422278002E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>41</v>
       </c>
@@ -873,7 +1105,7 @@
         <v>6.2725562162213599E-4</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>65</v>
       </c>
@@ -881,7 +1113,7 @@
         <v>6.2666379727016597E-4</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>47</v>
       </c>
@@ -889,7 +1121,7 @@
         <v>6.2098968328549997E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>66</v>
       </c>
@@ -897,7 +1129,7 @@
         <v>6.19958488402239E-4</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>29</v>
       </c>
@@ -905,7 +1137,7 @@
         <v>6.1920325205722104E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>37</v>
       </c>
@@ -913,7 +1145,7 @@
         <v>6.1894337689205603E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>45</v>
       </c>
@@ -921,7 +1153,7 @@
         <v>6.14085660208485E-4</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>63</v>
       </c>
@@ -929,7 +1161,7 @@
         <v>6.0633469451587497E-4</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>60</v>
       </c>
@@ -937,7 +1169,7 @@
         <v>5.7649632670098096E-4</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>23</v>
       </c>
@@ -945,7 +1177,7 @@
         <v>5.6255321342646403E-4</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>39</v>
       </c>
@@ -953,7 +1185,7 @@
         <v>5.6057185472491199E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -961,7 +1193,7 @@
         <v>5.35977818606037E-4</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>77</v>
       </c>
@@ -969,7 +1201,7 @@
         <v>5.1659850362928395E-4</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>30</v>
       </c>
@@ -977,7 +1209,7 @@
         <v>4.8291473785910799E-4</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>55</v>
       </c>
@@ -985,7 +1217,7 @@
         <v>4.73313491201943E-4</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>68</v>
       </c>
@@ -993,7 +1225,7 @@
         <v>3.8295245294894798E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>28</v>
       </c>
@@ -1001,7 +1233,7 @@
         <v>2.9738538601753499E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>27</v>
       </c>
@@ -1009,7 +1241,7 @@
         <v>1.41602208392655E-4</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>61</v>
       </c>
@@ -1017,7 +1249,7 @@
         <v>1.2734204494424501E-4</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>7</v>
       </c>
@@ -1025,7 +1257,7 @@
         <v>1.09237232597481E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>48</v>
       </c>
@@ -1033,7 +1265,7 @@
         <v>1.03246628089804E-4</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>72</v>
       </c>
@@ -1041,7 +1273,7 @@
         <v>1.0245805765229901E-4</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>73</v>
       </c>
@@ -1049,7 +1281,7 @@
         <v>1.00469314975871E-4</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>31</v>
       </c>
@@ -1057,7 +1289,7 @@
         <v>7.8061725862221807E-5</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>40</v>
       </c>
@@ -1065,7 +1297,7 @@
         <v>7.6917570115853096E-5</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>54</v>
       </c>
@@ -1073,7 +1305,7 @@
         <v>7.2189580181625205E-5</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>24</v>
       </c>
@@ -1081,7 +1313,7 @@
         <v>6.0500445718591999E-5</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>53</v>
       </c>
@@ -1089,7 +1321,7 @@
         <v>4.6837465941140799E-5</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>35</v>
       </c>
@@ -1097,7 +1329,7 @@
         <v>3.7634547988441E-5</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>74</v>
       </c>
@@ -1105,7 +1337,7 @@
         <v>3.6543689008961002E-5</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>16</v>
       </c>
@@ -1113,7 +1345,7 @@
         <v>3.64718361526295E-5</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>87</v>
       </c>
@@ -1121,7 +1353,7 @@
         <v>3.4509677563243601E-5</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>8</v>
       </c>
@@ -1129,7 +1361,7 @@
         <v>3.45027693371414E-5</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>50</v>
       </c>
@@ -1137,7 +1369,7 @@
         <v>3.4352779104462903E-5</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>11</v>
       </c>
@@ -1145,7 +1377,7 @@
         <v>3.4348556236740699E-5</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>5</v>
       </c>
@@ -1153,7 +1385,7 @@
         <v>3.4341763001655098E-5</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>52</v>
       </c>
@@ -1161,7 +1393,7 @@
         <v>3.4341763001655098E-5</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>21</v>
       </c>
